--- a/data/report_template.xlsx
+++ b/data/report_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/innocentwowa/Documents/Python Scripts/DashPlotly/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F4F1F1-1149-D14C-A618-E29C878A3D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092A2611-F1D5-584A-953C-66CB0B841423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18260" yWindow="1340" windowWidth="16200" windowHeight="17440" activeTab="5" xr2:uid="{3D565A06-DCC6-034B-BC7E-69C7A268E9F5}"/>
+    <workbookView xWindow="18260" yWindow="1340" windowWidth="16200" windowHeight="17440" xr2:uid="{3D565A06-DCC6-034B-BC7E-69C7A268E9F5}"/>
   </bookViews>
   <sheets>
     <sheet name="VARIABLE_NAMES" sheetId="1" r:id="rId1"/>
@@ -1920,7 +1920,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2237,7 +2237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF3DCA1-A1B4-4847-83F8-CD3F49F3B2DB}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2563,7 +2563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FFC6EF-7416-4248-8F7C-A9DB9EA24A4A}">
   <dimension ref="A1:F492"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/data/report_template.xlsx
+++ b/data/report_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/innocentwowa/Documents/Python Scripts/DashPlotly/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092A2611-F1D5-584A-953C-66CB0B841423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C58057-17BD-6B40-8981-096C8AA9D674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18260" yWindow="1340" windowWidth="16200" windowHeight="17440" xr2:uid="{3D565A06-DCC6-034B-BC7E-69C7A268E9F5}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{3D565A06-DCC6-034B-BC7E-69C7A268E9F5}"/>
   </bookViews>
   <sheets>
     <sheet name="VARIABLE_NAMES" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="DESIGN" sheetId="5" r:id="rId5"/>
     <sheet name="DATA EXAMPLES" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="606">
   <si>
     <t>name</t>
   </si>
@@ -178,24 +178,6 @@
     <t>For Example: Filter name to be used on Variable Names sheet</t>
   </si>
   <si>
-    <t>Measure count can be  count or sum</t>
-  </si>
-  <si>
-    <t>Unique column can be encounter_id, person_id or visit_id</t>
-  </si>
-  <si>
-    <t>Column to Filter</t>
-  </si>
-  <si>
-    <t>Value to Filter</t>
-  </si>
-  <si>
-    <t>Second Column to Filter</t>
-  </si>
-  <si>
-    <t>Second Value to Filter</t>
-  </si>
-  <si>
     <t>For Example: malaria_report</t>
   </si>
   <si>
@@ -205,9 +187,6 @@
     <t>Optional</t>
   </si>
   <si>
-    <t>For Example: Monthly Health Facility Malaria Report</t>
-  </si>
-  <si>
     <t>Column name: Over 5</t>
   </si>
   <si>
@@ -1844,6 +1823,42 @@
   </si>
   <si>
     <t>DrugName</t>
+  </si>
+  <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>count_set</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>Unique_columns</t>
+  </si>
+  <si>
+    <t>person_id</t>
+  </si>
+  <si>
+    <t>encounter_id</t>
+  </si>
+  <si>
+    <t>All_columns</t>
+  </si>
+  <si>
+    <t>obs_value_coded</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>ValueN</t>
+  </si>
+  <si>
+    <t>new_revisit</t>
   </si>
 </sst>
 </file>
@@ -2238,7 +2253,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2255,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2290,16 +2305,16 @@
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>43</v>
@@ -2337,7 +2352,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2419,35 +2434,89 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>595</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>599</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{73ED4B6C-9864-8A41-958D-522FACDCBD08}">
+          <x14:formula1>
+            <xm:f>'DATA EXAMPLES'!$G$2:$G$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D1FD860E-88EF-6C46-BE53-7A4DBF0A8B6D}">
+          <x14:formula1>
+            <xm:f>'DATA EXAMPLES'!$H$2:$H$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E738FA70-C97B-634E-9058-B830F6B3CC9B}">
+          <x14:formula1>
+            <xm:f>'DATA EXAMPLES'!$A$2:$A$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E5360F4A-CE4D-034B-AADF-65DBB821B4DC}">
+          <x14:formula1>
+            <xm:f>'DATA EXAMPLES'!$I$2:$I$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F9B71D13-3A6F-D847-92EA-05112148CA16}">
+          <x14:formula1>
+            <xm:f>'DATA EXAMPLES'!$I$3:$I$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{41B61C2E-BD9D-1848-9292-CD17FE55DEB6}">
+          <x14:formula1>
+            <xm:f>'DATA EXAMPLES'!$I$4:$I$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H1048576 J2:J1048576 L2:L1048576 N2:N1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2471,10 +2540,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2502,7 +2571,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2515,7 +2584,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2540,17 +2609,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>54</v>
+      <c r="A2" s="1" t="str">
+        <f>REPORT_NAME!A2</f>
+        <v>For Example: malaria_report</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2561,10 +2631,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FFC6EF-7416-4248-8F7C-A9DB9EA24A4A}">
-  <dimension ref="A1:F492"/>
+  <dimension ref="A1:I492"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2578,2611 +2648,2665 @@
     <col min="7" max="7" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
+        <v>595</v>
+      </c>
+      <c r="H2" t="s">
+        <v>599</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>596</v>
+      </c>
+      <c r="H3" t="s">
+        <v>600</v>
+      </c>
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>597</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>80</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C10" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="I10" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>81</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C11" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="I11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>82</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C12" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>83</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>84</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>85</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>86</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C16" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C127" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C128" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C129" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C130" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C131" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C134" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C139" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C143" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C145" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C147" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C151" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C153" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C154" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="155" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C155" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C156" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="157" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C157" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C158" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="159" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C159" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C160" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C162" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C163" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C165" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C166" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C167" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C168" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C169" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C170" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C171" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C172" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C173" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C174" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C175" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C176" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C177" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C178" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C179" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C180" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C181" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C182" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C183" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C184" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C185" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C186" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C187" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C188" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C189" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C190" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C191" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C192" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C193" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C194" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C195" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C196" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C197" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C198" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C199" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C200" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C201" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C202" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C203" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C204" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C205" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C206" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C207" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C208" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C209" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C210" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C211" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="212" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C212" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C213" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="214" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C214" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C215" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C216" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C217" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="218" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C218" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C219" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="220" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C220" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C221" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="222" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C222" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C223" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C224" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C225" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C226" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C227" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="228" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C228" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C229" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="230" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C230" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="231" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C231" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C232" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="233" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C233" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="234" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C234" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="235" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C235" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="236" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C236" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="237" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C237" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="238" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C238" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="239" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C239" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="240" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C240" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C241" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="242" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C242" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="243" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C243" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="244" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C244" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="245" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C245" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="246" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C246" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="247" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C247" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="248" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C248" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="249" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C249" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="250" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C250" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="251" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C251" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="252" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C252" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="253" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C253" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="254" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C254" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="255" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C255" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="256" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C256" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="257" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C257" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="258" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C258" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="259" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C259" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="260" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C260" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="261" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C261" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="262" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C262" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="263" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C263" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="264" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C264" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="265" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C265" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="266" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C266" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="267" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C267" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="268" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C268" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="269" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C269" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="270" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C270" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="271" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C271" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="272" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C272" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="273" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C273" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="274" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C274" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="275" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C275" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="276" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C276" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="277" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C277" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="278" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C278" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="279" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C279" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="280" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C280" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="281" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C281" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="282" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C282" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="283" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C283" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="284" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C284" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="285" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C285" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="286" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C286" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="287" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C287" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="288" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C288" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="289" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C289" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="290" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C290" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="291" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C291" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="292" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C292" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="293" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C293" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="294" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C294" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="295" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C295" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="296" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C296" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="297" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C297" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="298" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C298" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="299" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C299" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="300" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C300" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="301" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C301" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="302" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C302" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="303" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C303" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="304" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C304" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="305" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C305" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="306" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C306" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="307" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C307" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="308" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C308" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="309" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C309" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="310" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C310" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="311" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C311" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="312" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C312" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="313" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C313" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="314" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C314" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="315" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C315" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="316" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C316" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="317" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C317" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="318" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C318" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="319" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C319" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="320" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C320" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="321" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C321" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="322" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C322" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="323" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C323" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="324" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C324" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="325" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C325" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="326" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C326" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="327" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C327" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="328" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C328" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="329" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C329" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="330" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C330" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="331" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C331" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="332" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C332" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="333" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C333" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="334" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C334" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="335" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C335" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="336" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C336" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="337" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C337" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="338" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C338" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="339" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C339" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="340" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C340" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="341" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C341" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="342" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C342" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="343" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C343" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="344" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C344" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="345" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C345" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="346" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C346" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="347" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C347" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="348" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C348" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="349" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C349" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="350" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C350" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="351" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C351" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="352" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C352" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="353" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C353" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="354" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C354" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="355" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C355" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="356" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C356" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="357" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C357" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="358" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C358" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="359" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C359" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="360" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C360" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="361" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C361" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="362" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C362" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="363" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C363" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="364" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C364" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="365" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C365" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="366" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C366" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="367" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C367" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="368" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C368" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="369" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C369" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="370" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C370" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="371" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C371" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="372" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C372" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="373" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C373" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="374" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C374" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="375" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C375" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="376" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C376" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="377" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C377" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="378" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C378" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="379" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C379" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="380" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C380" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="381" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C381" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="382" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C382" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="383" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C383" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="384" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C384" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="385" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C385" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="386" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C386" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="387" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C387" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="388" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C388" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="389" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C389" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="390" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C390" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="391" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C391" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="392" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C392" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="393" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C393" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="394" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C394" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="395" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C395" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="396" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C396" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="397" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C397" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="398" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C398" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="399" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C399" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="400" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C400" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="401" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C401" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="402" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C402" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="403" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C403" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="404" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C404" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="405" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C405" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="406" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C406" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="407" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C407" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="408" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C408" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="409" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C409" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="410" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C410" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="411" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C411" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="412" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C412" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="413" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C413" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="414" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C414" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="415" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C415" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="416" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C416" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="417" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C417" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="418" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C418" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="419" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C419" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="420" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C420" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="421" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C421" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="422" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C422" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="423" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C423" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="424" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C424" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="425" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C425" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="426" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C426" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="427" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C427" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="428" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C428" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="429" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C429" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="430" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C430" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="431" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C431" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="432" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C432" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="433" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C433" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="434" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C434" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="435" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C435" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="436" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C436" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="437" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C437" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="438" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C438" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
     </row>
     <row r="439" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C439" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="440" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C440" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="441" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C441" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="442" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C442" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="443" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C443" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
     </row>
     <row r="444" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C444" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="445" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C445" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="446" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C446" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="447" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C447" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="448" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C448" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="449" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C449" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="450" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C450" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="451" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C451" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="452" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C452" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
     </row>
     <row r="453" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C453" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="454" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C454" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="455" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C455" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="456" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C456" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="457" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C457" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="458" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C458" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="459" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C459" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="460" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C460" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="461" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C461" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="462" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C462" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="463" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C463" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="464" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C464" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="465" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C465" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="466" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C466" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="467" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C467" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
     <row r="468" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C468" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="469" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C469" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="470" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C470" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="471" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C471" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="472" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C472" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="473" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C473" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
     <row r="474" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C474" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="475" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C475" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="476" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C476" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
     </row>
     <row r="477" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C477" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="478" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C478" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="479" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C479" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="480" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C480" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
     </row>
     <row r="481" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C481" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="482" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C482" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="483" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C483" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="484" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C484" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
     </row>
     <row r="485" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C485" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="486" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C486" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
     </row>
     <row r="487" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C487" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="488" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C488" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="489" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C489" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="490" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C490" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
     </row>
     <row r="491" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C491" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="492" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C492" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>

--- a/data/report_template.xlsx
+++ b/data/report_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/innocentwowa/Documents/Python Scripts/DashPlotly/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C58057-17BD-6B40-8981-096C8AA9D674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C53130D-9DA6-1748-B9ED-CBFF41CFDBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{3D565A06-DCC6-034B-BC7E-69C7A268E9F5}"/>
+    <workbookView xWindow="15600" yWindow="760" windowWidth="18960" windowHeight="19880" activeTab="5" xr2:uid="{3D565A06-DCC6-034B-BC7E-69C7A268E9F5}"/>
   </bookViews>
   <sheets>
     <sheet name="VARIABLE_NAMES" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="609">
   <si>
     <t>name</t>
   </si>
@@ -1859,6 +1859,15 @@
   </si>
   <si>
     <t>new_revisit</t>
+  </si>
+  <si>
+    <t>cohort_sum</t>
+  </si>
+  <si>
+    <t>cohort_count_set</t>
+  </si>
+  <si>
+    <t>cohort_count</t>
   </si>
 </sst>
 </file>
@@ -2252,7 +2261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF3DCA1-A1B4-4847-83F8-CD3F49F3B2DB}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -2633,8 +2642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FFC6EF-7416-4248-8F7C-A9DB9EA24A4A}">
   <dimension ref="A1:I492"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2765,6 +2774,9 @@
       <c r="E5" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="G5" t="s">
+        <v>606</v>
+      </c>
       <c r="I5" t="s">
         <v>602</v>
       </c>
@@ -2779,6 +2791,9 @@
       <c r="C6" t="s">
         <v>105</v>
       </c>
+      <c r="G6" t="s">
+        <v>607</v>
+      </c>
       <c r="I6" t="s">
         <v>604</v>
       </c>
@@ -2792,6 +2807,9 @@
       </c>
       <c r="C7" t="s">
         <v>106</v>
+      </c>
+      <c r="G7" t="s">
+        <v>608</v>
       </c>
       <c r="I7" t="s">
         <v>603</v>
